--- a/SEM 3/Progress.xlsx
+++ b/SEM 3/Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679229AF-F6F8-4E7D-AFCF-414CD90BD61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2AE4FE-C862-4532-8F22-3AE6F80EC597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>EXP1</t>
   </si>
@@ -474,7 +477,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F15" sqref="F15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +753,15 @@
       <c r="E15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
@@ -763,6 +775,15 @@
       </c>
       <c r="E16" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
